--- a/PyExcel/InventoryControlAnalyticsExample.xlsx
+++ b/PyExcel/InventoryControlAnalyticsExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://protoanalytics-my.sharepoint.com/personal/mattheos_protopapas_kedrosanalytics_com/Documents/Technical Materials/logistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{D5B9FCD6-7600-45A6-B339-34E3F4E36C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D53C2B34-E15F-48B4-B09E-48CE904EA0C8}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{D5B9FCD6-7600-45A6-B339-34E3F4E36C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC73C8D3-2D5F-476C-83EF-C13445A94D51}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18ECA560-AF18-42FD-9EAE-517105DDF84C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -88,7 +88,7 @@
 # Get distinct SKU IDs
 sku_ids = sku_list["SKU ID"]
 # Create a list of dictionaries to store the results for each SKU ID
-results = pd.DataFrame(columns=['sku_id', 'safety_stock', 'reorder_point', 'EOQ'])
+results = pd.DataFrame(columns=['sku_id', 'Minimum stock we should have', 'Reorder when stock reaches this level', 'Quantity to Order'])
 # Iterate through each SKU ID and filter the DataFrame
 for sku in sku_ids:
     df = orders[orders['sku_id'] == sku]
@@ -118,9 +118,9 @@
     #store results
     new_row = pd.DataFrame([{
     'sku_id': sku,
-    'safety_stock': f"{safety_stock:.2f}",
-    'reorder_point': f"{reorder_point:.2f}",
-    'EOQ': f"{EOQ:.2f}" }])
+    'Minimum stock we should have': f"{safety_stock:.2f}",
+    'Reorder when stock reaches this level': f"{reorder_point:.2f}",
+    'Quantity to Order': f"{EOQ:.2f}" }])
     results = pd.concat([results, new_row], ignore_index=True)
 results</code>
     </pythonScript>
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -312,9 +312,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -766,23 +763,24 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="str" cm="1">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str" cm="1">
         <f t="array" ref="A1:D6">_xlfn._xlws.PY(0,0,Params[#All],SKUs[#All],orders[#All])</f>
         <v>sku_id</v>
       </c>
-      <c r="B1" s="8" t="str">
-        <v>safety_stock</v>
-      </c>
-      <c r="C1" s="8" t="str">
-        <v>reorder_point</v>
-      </c>
-      <c r="D1" s="8" t="str">
-        <v>EOQ</v>
+      <c r="B1" s="1" t="str">
+        <v>Minimum stock we should have</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>Reorder when stock reaches this level</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>Quantity to Order</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2027,10 +2025,10 @@
       <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2038,16 +2036,16 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -2061,16 +2059,16 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>1.5</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -2084,16 +2082,16 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>2</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -2107,16 +2105,16 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -2130,16 +2128,16 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>2.5</v>
       </c>
       <c r="H6" s="5" t="s">
